--- a/data/contestent.xlsx
+++ b/data/contestent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="30">
   <si>
     <t>Match_no</t>
   </si>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2590,6 +2590,132 @@
         <v>7</v>
       </c>
       <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>17</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>17</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>17</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>17</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162">
+        <v>9</v>
+      </c>
+      <c r="D162">
         <v>0</v>
       </c>
     </row>
